--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -624,11 +624,15 @@
           <t>Maycon Douglas</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>81999653039</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14290542476</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81999653039</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14290542476</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -640,61 +644,131 @@
           <t>Polarizada</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>500</v>
-      </c>
-      <c r="J2" t="n">
-        <v>300</v>
-      </c>
-      <c r="K2" t="n">
-        <v>200</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>Oticanewlook</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>60</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+          <t>Roberto</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-15.00</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>32.5</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t>Polarizada</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>12:00</t>
@@ -1067,18 +1141,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marcos</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81999653039</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12345678911</t>
-        </is>
+          <t>Maycon Douglas</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>81999653039</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14290542476</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1090,111 +1160,71 @@
           <t>500-740</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
+      <c r="I6" t="n">
+        <v>700</v>
+      </c>
+      <c r="J6" t="n">
+        <v>500</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="M6" t="n">
+        <v>7</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Vitoria</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
+      <c r="O6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>33</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
